--- a/src/main/resources/template/系统功能.xlsx
+++ b/src/main/resources/template/系统功能.xlsx
@@ -302,12 +302,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,15 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,7 +641,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,149 +655,149 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/src/main/resources/template/系统功能.xlsx
+++ b/src/main/resources/template/系统功能.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统功能" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="技术功能" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,43 +97,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>定时更新归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时发送邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时清除拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/修改文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/修改文章分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章列表（首页/技术/闲言碎语/慢生活）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>定时任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定时更新归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时发送邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时清除拦截</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增/修改文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增/修改文章分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章列表（首页/技术/闲言碎语/慢生活）</t>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ioc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arraylist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forkjoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkedlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concurrenthashmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +330,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -298,11 +476,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +537,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -725,28 +957,28 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -764,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -781,28 +1013,47 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A2:A7"/>
@@ -819,14 +1070,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
